--- a/Livro1.xlsx
+++ b/Livro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Python311\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D31824C-1E1B-4170-9376-BD5017F62BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB6E76F-4017-42FD-A6CB-C987A2E85EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4020" yWindow="2625" windowWidth="21600" windowHeight="11295" xr2:uid="{3519D4B4-CCE2-4B55-822D-06FAA3512657}"/>
   </bookViews>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="1">
   <si>
-    <t>AAAAAA</t>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44200B26-37C8-440F-ADE3-22A39478B3CA}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -399,75 +399,62 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Livro1.xlsx
+++ b/Livro1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Python311\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB6E76F-4017-42FD-A6CB-C987A2E85EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B20673-FFF3-4EB3-BCEE-2B73196A7E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="2625" windowWidth="21600" windowHeight="11295" xr2:uid="{3519D4B4-CCE2-4B55-822D-06FAA3512657}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{3519D4B4-CCE2-4B55-822D-06FAA3512657}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="6">
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
@@ -391,71 +406,179 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44200B26-37C8-440F-ADE3-22A39478B3CA}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>7</v>
+      </c>
+      <c r="K6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
